--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-006 - Penambahan Leads dari Store ke Cart.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-006 - Penambahan Leads dari Store ke Cart.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D28FA-A1E7-47D5-8785-82FFC2A777E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57016AA1-587D-4E05-BFEB-25B05A7A6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0175" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -73,9 +73,6 @@
     <t>Prospek</t>
   </si>
   <si>
-    <t>DGS-190</t>
-  </si>
-  <si>
     <t>Penambahan Leads dari Store (termasuk Free, Dedicated, Kelolaan dan Prospek) ke Cart</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>fadil</t>
+  </si>
+  <si>
+    <t>SCD0011-006</t>
   </si>
 </sst>
 </file>
@@ -514,14 +514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -586,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="11">
         <v>55210</v>
@@ -610,14 +610,14 @@
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -630,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="11">
         <v>55210</v>
@@ -654,14 +654,14 @@
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="2"/>
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="11">
         <v>55210</v>
@@ -695,14 +695,14 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
@@ -712,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="11">
         <v>55210</v>
@@ -740,10 +740,10 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
